--- a/金融/模拟投资组合-机器学习模型-选股/最终预测结果.xlsx
+++ b/金融/模拟投资组合-机器学习模型-选股/最终预测结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>股票代码</t>
   </si>
@@ -25,604 +25,586 @@
     <t>位置总和</t>
   </si>
   <si>
-    <t>301369.SZ</t>
-  </si>
-  <si>
-    <t>603836.SH</t>
-  </si>
-  <si>
-    <t>688270.SH</t>
-  </si>
-  <si>
-    <t>301225.SZ</t>
-  </si>
-  <si>
-    <t>001326.SZ</t>
-  </si>
-  <si>
-    <t>301222.SZ</t>
-  </si>
-  <si>
-    <t>301503.SZ</t>
-  </si>
-  <si>
-    <t>688521.SH</t>
-  </si>
-  <si>
-    <t>300458.SZ</t>
-  </si>
-  <si>
-    <t>002862.SZ</t>
-  </si>
-  <si>
-    <t>688589.SH</t>
-  </si>
-  <si>
-    <t>688689.SH</t>
-  </si>
-  <si>
-    <t>300514.SZ</t>
-  </si>
-  <si>
-    <t>300593.SZ</t>
-  </si>
-  <si>
-    <t>300141.SZ</t>
-  </si>
-  <si>
-    <t>688226.SH</t>
-  </si>
-  <si>
-    <t>001368.SZ</t>
-  </si>
-  <si>
-    <t>002811.SZ</t>
-  </si>
-  <si>
-    <t>688038.SH</t>
-  </si>
-  <si>
-    <t>301301.SZ</t>
+    <t>301226.SZ</t>
+  </si>
+  <si>
+    <t>601658.SH</t>
+  </si>
+  <si>
+    <t>301119.SZ</t>
+  </si>
+  <si>
+    <t>601006.SH</t>
+  </si>
+  <si>
+    <t>300721.SZ</t>
+  </si>
+  <si>
+    <t>002871.SZ</t>
+  </si>
+  <si>
+    <t>688468.SH</t>
+  </si>
+  <si>
+    <t>002788.SZ</t>
+  </si>
+  <si>
+    <t>600398.SH</t>
+  </si>
+  <si>
+    <t>603299.SH</t>
+  </si>
+  <si>
+    <t>002166.SZ</t>
+  </si>
+  <si>
+    <t>002545.SZ</t>
+  </si>
+  <si>
+    <t>600820.SH</t>
+  </si>
+  <si>
+    <t>600658.SH</t>
+  </si>
+  <si>
+    <t>300317.SZ</t>
+  </si>
+  <si>
+    <t>300337.SZ</t>
+  </si>
+  <si>
+    <t>002839.SZ</t>
+  </si>
+  <si>
+    <t>600064.SH</t>
+  </si>
+  <si>
+    <t>601229.SH</t>
+  </si>
+  <si>
+    <t>000906.SZ</t>
+  </si>
+  <si>
+    <t>301175.SZ</t>
+  </si>
+  <si>
+    <t>002234.SZ</t>
+  </si>
+  <si>
+    <t>601366.SH</t>
+  </si>
+  <si>
+    <t>600694.SH</t>
+  </si>
+  <si>
+    <t>002550.SZ</t>
+  </si>
+  <si>
+    <t>001360.SZ</t>
+  </si>
+  <si>
+    <t>603669.SH</t>
+  </si>
+  <si>
+    <t>688575.SH</t>
+  </si>
+  <si>
+    <t>600489.SH</t>
+  </si>
+  <si>
+    <t>600787.SH</t>
+  </si>
+  <si>
+    <t>300218.SZ</t>
+  </si>
+  <si>
+    <t>600032.SH</t>
+  </si>
+  <si>
+    <t>600496.SH</t>
   </si>
   <si>
     <t>600889.SH</t>
   </si>
   <si>
-    <t>600694.SH</t>
-  </si>
-  <si>
-    <t>688181.SH</t>
-  </si>
-  <si>
-    <t>300416.SZ</t>
+    <t>688022.SH</t>
+  </si>
+  <si>
+    <t>002185.SZ</t>
+  </si>
+  <si>
+    <t>300745.SZ</t>
+  </si>
+  <si>
+    <t>001872.SZ</t>
+  </si>
+  <si>
+    <t>002864.SZ</t>
+  </si>
+  <si>
+    <t>605183.SH</t>
+  </si>
+  <si>
+    <t>603085.SH</t>
+  </si>
+  <si>
+    <t>300772.SZ</t>
+  </si>
+  <si>
+    <t>002468.SZ</t>
+  </si>
+  <si>
+    <t>002128.SZ</t>
+  </si>
+  <si>
+    <t>600089.SH</t>
+  </si>
+  <si>
+    <t>002244.SZ</t>
+  </si>
+  <si>
+    <t>002358.SZ</t>
+  </si>
+  <si>
+    <t>002142.SZ</t>
+  </si>
+  <si>
+    <t>603055.SH</t>
+  </si>
+  <si>
+    <t>300497.SZ</t>
+  </si>
+  <si>
+    <t>000551.SZ</t>
+  </si>
+  <si>
+    <t>002606.SZ</t>
+  </si>
+  <si>
+    <t>000682.SZ</t>
+  </si>
+  <si>
+    <t>301193.SZ</t>
+  </si>
+  <si>
+    <t>300532.SZ</t>
+  </si>
+  <si>
+    <t>002438.SZ</t>
+  </si>
+  <si>
+    <t>600508.SH</t>
+  </si>
+  <si>
+    <t>300397.SZ</t>
+  </si>
+  <si>
+    <t>688126.SH</t>
+  </si>
+  <si>
+    <t>000728.SZ</t>
+  </si>
+  <si>
+    <t>301309.SZ</t>
+  </si>
+  <si>
+    <t>301028.SZ</t>
+  </si>
+  <si>
+    <t>603889.SH</t>
+  </si>
+  <si>
+    <t>300652.SZ</t>
+  </si>
+  <si>
+    <t>000960.SZ</t>
+  </si>
+  <si>
+    <t>000830.SZ</t>
+  </si>
+  <si>
+    <t>300516.SZ</t>
+  </si>
+  <si>
+    <t>605016.SH</t>
+  </si>
+  <si>
+    <t>002422.SZ</t>
+  </si>
+  <si>
+    <t>600435.SH</t>
+  </si>
+  <si>
+    <t>688143.SH</t>
+  </si>
+  <si>
+    <t>600460.SH</t>
+  </si>
+  <si>
+    <t>688786.SH</t>
+  </si>
+  <si>
+    <t>300712.SZ</t>
+  </si>
+  <si>
+    <t>300012.SZ</t>
+  </si>
+  <si>
+    <t>603179.SH</t>
+  </si>
+  <si>
+    <t>300855.SZ</t>
+  </si>
+  <si>
+    <t>002501.SZ</t>
+  </si>
+  <si>
+    <t>603589.SH</t>
+  </si>
+  <si>
+    <t>002003.SZ</t>
+  </si>
+  <si>
+    <t>301306.SZ</t>
+  </si>
+  <si>
+    <t>603690.SH</t>
+  </si>
+  <si>
+    <t>300866.SZ</t>
   </si>
   <si>
     <t>603050.SH</t>
   </si>
   <si>
-    <t>603595.SH</t>
-  </si>
-  <si>
-    <t>603219.SH</t>
-  </si>
-  <si>
-    <t>603920.SH</t>
-  </si>
-  <si>
-    <t>300969.SZ</t>
-  </si>
-  <si>
-    <t>603332.SH</t>
-  </si>
-  <si>
-    <t>300710.SZ</t>
-  </si>
-  <si>
-    <t>002922.SZ</t>
-  </si>
-  <si>
-    <t>300662.SZ</t>
-  </si>
-  <si>
-    <t>600007.SH</t>
-  </si>
-  <si>
-    <t>301373.SZ</t>
-  </si>
-  <si>
-    <t>002992.SZ</t>
-  </si>
-  <si>
-    <t>603269.SH</t>
-  </si>
-  <si>
-    <t>688360.SH</t>
-  </si>
-  <si>
-    <t>000833.SZ</t>
-  </si>
-  <si>
-    <t>601328.SH</t>
-  </si>
-  <si>
-    <t>688231.SH</t>
-  </si>
-  <si>
-    <t>300562.SZ</t>
-  </si>
-  <si>
-    <t>688268.SH</t>
-  </si>
-  <si>
-    <t>002790.SZ</t>
-  </si>
-  <si>
-    <t>000567.SZ</t>
-  </si>
-  <si>
-    <t>001228.SZ</t>
-  </si>
-  <si>
-    <t>600559.SH</t>
-  </si>
-  <si>
-    <t>002895.SZ</t>
-  </si>
-  <si>
-    <t>000999.SZ</t>
-  </si>
-  <si>
-    <t>600489.SH</t>
-  </si>
-  <si>
-    <t>600486.SH</t>
-  </si>
-  <si>
-    <t>603291.SH</t>
-  </si>
-  <si>
-    <t>601666.SH</t>
-  </si>
-  <si>
-    <t>600389.SH</t>
-  </si>
-  <si>
-    <t>002404.SZ</t>
-  </si>
-  <si>
-    <t>300759.SZ</t>
-  </si>
-  <si>
-    <t>601989.SH</t>
-  </si>
-  <si>
-    <t>600329.SH</t>
-  </si>
-  <si>
-    <t>600233.SH</t>
-  </si>
-  <si>
-    <t>002020.SZ</t>
-  </si>
-  <si>
-    <t>688367.SH</t>
-  </si>
-  <si>
-    <t>603669.SH</t>
+    <t>002338.SZ</t>
+  </si>
+  <si>
+    <t>688073.SH</t>
+  </si>
+  <si>
+    <t>301269.SZ</t>
+  </si>
+  <si>
+    <t>301525.SZ</t>
+  </si>
+  <si>
+    <t>688623.SH</t>
+  </si>
+  <si>
+    <t>688293.SH</t>
   </si>
   <si>
     <t>002025.SZ</t>
   </si>
   <si>
-    <t>601366.SH</t>
-  </si>
-  <si>
-    <t>603889.SH</t>
-  </si>
-  <si>
-    <t>600326.SH</t>
-  </si>
-  <si>
-    <t>603676.SH</t>
-  </si>
-  <si>
-    <t>600293.SH</t>
-  </si>
-  <si>
-    <t>002564.SZ</t>
-  </si>
-  <si>
-    <t>300773.SZ</t>
-  </si>
-  <si>
-    <t>600123.SH</t>
-  </si>
-  <si>
-    <t>300316.SZ</t>
-  </si>
-  <si>
-    <t>601766.SH</t>
-  </si>
-  <si>
-    <t>600480.SH</t>
-  </si>
-  <si>
-    <t>002349.SZ</t>
-  </si>
-  <si>
-    <t>300001.SZ</t>
-  </si>
-  <si>
-    <t>002580.SZ</t>
-  </si>
-  <si>
-    <t>000019.SZ</t>
-  </si>
-  <si>
-    <t>002752.SZ</t>
-  </si>
-  <si>
-    <t>002617.SZ</t>
-  </si>
-  <si>
-    <t>601111.SH</t>
-  </si>
-  <si>
-    <t>600645.SH</t>
-  </si>
-  <si>
-    <t>300048.SZ</t>
-  </si>
-  <si>
-    <t>601166.SH</t>
-  </si>
-  <si>
-    <t>002140.SZ</t>
-  </si>
-  <si>
-    <t>600132.SH</t>
-  </si>
-  <si>
-    <t>600063.SH</t>
-  </si>
-  <si>
-    <t>002234.SZ</t>
-  </si>
-  <si>
-    <t>601818.SH</t>
-  </si>
-  <si>
-    <t>300239.SZ</t>
-  </si>
-  <si>
-    <t>600409.SH</t>
-  </si>
-  <si>
-    <t>002948.SZ</t>
-  </si>
-  <si>
-    <t>600803.SH</t>
-  </si>
-  <si>
-    <t>001330.SZ</t>
-  </si>
-  <si>
-    <t>601827.SH</t>
-  </si>
-  <si>
-    <t>688220.SH</t>
-  </si>
-  <si>
-    <t>600530.SH</t>
-  </si>
-  <si>
-    <t>000728.SZ</t>
-  </si>
-  <si>
-    <t>603007.SH</t>
-  </si>
-  <si>
-    <t>600219.SH</t>
-  </si>
-  <si>
-    <t>联动科技</t>
-  </si>
-  <si>
-    <t>海程邦达</t>
-  </si>
-  <si>
-    <t>臻镭科技</t>
-  </si>
-  <si>
-    <t>恒勃股份</t>
-  </si>
-  <si>
-    <t>联域股份</t>
-  </si>
-  <si>
-    <t>浙江恒威</t>
-  </si>
-  <si>
-    <t>智迪科技</t>
-  </si>
-  <si>
-    <t>芯原股份</t>
-  </si>
-  <si>
-    <t>全志科技</t>
-  </si>
-  <si>
-    <t>实丰文化</t>
-  </si>
-  <si>
-    <t>力合微</t>
-  </si>
-  <si>
-    <t>银河微电</t>
-  </si>
-  <si>
-    <t>友讯达</t>
-  </si>
-  <si>
-    <t>新雷能</t>
-  </si>
-  <si>
-    <t>和顺电气</t>
-  </si>
-  <si>
-    <t>威腾电气</t>
-  </si>
-  <si>
-    <t>通达创智</t>
-  </si>
-  <si>
-    <t>郑中设计</t>
-  </si>
-  <si>
-    <t>中科通达</t>
-  </si>
-  <si>
-    <t>川宁生物</t>
+    <t>002146.SZ</t>
+  </si>
+  <si>
+    <t>688347.SH</t>
+  </si>
+  <si>
+    <t>300698.SZ</t>
+  </si>
+  <si>
+    <t>300979.SZ</t>
+  </si>
+  <si>
+    <t>300751.SZ</t>
+  </si>
+  <si>
+    <t>000793.SZ</t>
+  </si>
+  <si>
+    <t>祥明智能</t>
+  </si>
+  <si>
+    <t>邮储银行</t>
+  </si>
+  <si>
+    <t>正强股份</t>
+  </si>
+  <si>
+    <t>大秦铁路</t>
+  </si>
+  <si>
+    <t>怡达股份</t>
+  </si>
+  <si>
+    <t>伟隆股份</t>
+  </si>
+  <si>
+    <t>科美诊断</t>
+  </si>
+  <si>
+    <t>鹭燕医药</t>
+  </si>
+  <si>
+    <t>海澜之家</t>
+  </si>
+  <si>
+    <t>苏盐井神</t>
+  </si>
+  <si>
+    <t>莱茵生物</t>
+  </si>
+  <si>
+    <t>东方铁塔</t>
+  </si>
+  <si>
+    <t>隧道股份</t>
+  </si>
+  <si>
+    <t>电子城</t>
+  </si>
+  <si>
+    <t>珈伟新能</t>
+  </si>
+  <si>
+    <t>银邦股份</t>
+  </si>
+  <si>
+    <t>张家港行</t>
+  </si>
+  <si>
+    <t>南京高科</t>
+  </si>
+  <si>
+    <t>上海银行</t>
+  </si>
+  <si>
+    <t>浙商中拓</t>
+  </si>
+  <si>
+    <t>中科环保</t>
+  </si>
+  <si>
+    <t>民和股份</t>
+  </si>
+  <si>
+    <t>利群股份</t>
+  </si>
+  <si>
+    <t>大商股份</t>
+  </si>
+  <si>
+    <t>千红制药</t>
+  </si>
+  <si>
+    <t>南矿集团</t>
+  </si>
+  <si>
+    <t>灵康药业</t>
+  </si>
+  <si>
+    <t>亚辉龙</t>
+  </si>
+  <si>
+    <t>中金黄金</t>
+  </si>
+  <si>
+    <t>中储股份</t>
+  </si>
+  <si>
+    <t>安利股份</t>
+  </si>
+  <si>
+    <t>浙江新能</t>
+  </si>
+  <si>
+    <t>精工钢构</t>
   </si>
   <si>
     <t>南京化纤</t>
   </si>
   <si>
-    <t>大商股份</t>
-  </si>
-  <si>
-    <t>八亿时空</t>
-  </si>
-  <si>
-    <t>苏试试验</t>
+    <t>瀚川智能</t>
+  </si>
+  <si>
+    <t>华天科技</t>
+  </si>
+  <si>
+    <t>欣锐科技</t>
+  </si>
+  <si>
+    <t>招商港口</t>
+  </si>
+  <si>
+    <t>盘龙药业</t>
+  </si>
+  <si>
+    <t>确成股份</t>
+  </si>
+  <si>
+    <t>天成自控</t>
+  </si>
+  <si>
+    <t>运达股份</t>
+  </si>
+  <si>
+    <t>申通快递</t>
+  </si>
+  <si>
+    <t>电投能源</t>
+  </si>
+  <si>
+    <t>特变电工</t>
+  </si>
+  <si>
+    <t>滨江集团</t>
+  </si>
+  <si>
+    <t>森源电气</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>台华新材</t>
+  </si>
+  <si>
+    <t>富祥药业</t>
+  </si>
+  <si>
+    <t>创元科技</t>
+  </si>
+  <si>
+    <t>大连电瓷</t>
+  </si>
+  <si>
+    <t>东方电子</t>
+  </si>
+  <si>
+    <t>家联科技</t>
+  </si>
+  <si>
+    <t>今天国际</t>
+  </si>
+  <si>
+    <t>江苏神通</t>
+  </si>
+  <si>
+    <t>上海能源</t>
+  </si>
+  <si>
+    <t>天和防务</t>
+  </si>
+  <si>
+    <t>沪硅产业</t>
+  </si>
+  <si>
+    <t>国元证券</t>
+  </si>
+  <si>
+    <t>万得凯</t>
+  </si>
+  <si>
+    <t>东亚机械</t>
+  </si>
+  <si>
+    <t>新澳股份</t>
+  </si>
+  <si>
+    <t>雷迪克</t>
+  </si>
+  <si>
+    <t>锡业股份</t>
+  </si>
+  <si>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>久之洋</t>
+  </si>
+  <si>
+    <t>百龙创园</t>
+  </si>
+  <si>
+    <t>科伦药业</t>
+  </si>
+  <si>
+    <t>北方导航</t>
+  </si>
+  <si>
+    <t>长盈通</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>悦安新材</t>
+  </si>
+  <si>
+    <t>永福股份</t>
+  </si>
+  <si>
+    <t>华测检测</t>
+  </si>
+  <si>
+    <t>新泉股份</t>
+  </si>
+  <si>
+    <t>图南股份</t>
+  </si>
+  <si>
+    <t>利源股份</t>
+  </si>
+  <si>
+    <t>口子窖</t>
+  </si>
+  <si>
+    <t>伟星股份</t>
+  </si>
+  <si>
+    <t>西测测试</t>
+  </si>
+  <si>
+    <t>至纯科技</t>
+  </si>
+  <si>
+    <t>安克创新</t>
   </si>
   <si>
     <t>科林电气</t>
   </si>
   <si>
-    <t>东尼电子</t>
-  </si>
-  <si>
-    <t>富佳股份</t>
-  </si>
-  <si>
-    <t>世运电路</t>
-  </si>
-  <si>
-    <t>恒帅股份</t>
-  </si>
-  <si>
-    <t>苏州龙杰</t>
-  </si>
-  <si>
-    <t>万隆光电</t>
-  </si>
-  <si>
-    <t>伊戈尔</t>
-  </si>
-  <si>
-    <t>科锐国际</t>
-  </si>
-  <si>
-    <t>中国国贸</t>
-  </si>
-  <si>
-    <t>凌玮科技</t>
-  </si>
-  <si>
-    <t>宝明科技</t>
-  </si>
-  <si>
-    <t>海鸥股份</t>
-  </si>
-  <si>
-    <t>德马科技</t>
-  </si>
-  <si>
-    <t>粤桂股份</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-  </si>
-  <si>
-    <t>隆达股份</t>
-  </si>
-  <si>
-    <t>乐心医疗</t>
-  </si>
-  <si>
-    <t>华特气体</t>
-  </si>
-  <si>
-    <t>瑞尔特</t>
-  </si>
-  <si>
-    <t>海德股份</t>
-  </si>
-  <si>
-    <t>永泰运</t>
-  </si>
-  <si>
-    <t>老白干酒</t>
-  </si>
-  <si>
-    <t>川恒股份</t>
-  </si>
-  <si>
-    <t>华润三九</t>
-  </si>
-  <si>
-    <t>中金黄金</t>
-  </si>
-  <si>
-    <t>扬农化工</t>
-  </si>
-  <si>
-    <t>联合水务</t>
-  </si>
-  <si>
-    <t>平煤股份</t>
-  </si>
-  <si>
-    <t>江山股份</t>
-  </si>
-  <si>
-    <t>嘉欣丝绸</t>
-  </si>
-  <si>
-    <t>康龙化成</t>
-  </si>
-  <si>
-    <t>中国重工</t>
-  </si>
-  <si>
-    <t>达仁堂</t>
-  </si>
-  <si>
-    <t>圆通速递</t>
-  </si>
-  <si>
-    <t>京新药业</t>
-  </si>
-  <si>
-    <t>工大高科</t>
-  </si>
-  <si>
-    <t>灵康药业</t>
+    <t>奥普光电</t>
+  </si>
+  <si>
+    <t>毕得医药</t>
+  </si>
+  <si>
+    <t>华大九天</t>
+  </si>
+  <si>
+    <t>儒竞科技</t>
+  </si>
+  <si>
+    <t>双元科技</t>
+  </si>
+  <si>
+    <t>奥浦迈</t>
   </si>
   <si>
     <t>航天电器</t>
   </si>
   <si>
-    <t>利群股份</t>
-  </si>
-  <si>
-    <t>新澳股份</t>
-  </si>
-  <si>
-    <t>西藏天路</t>
-  </si>
-  <si>
-    <t>卫信康</t>
-  </si>
-  <si>
-    <t>三峡新材</t>
-  </si>
-  <si>
-    <t>*ST天沃</t>
-  </si>
-  <si>
-    <t>拉卡拉</t>
-  </si>
-  <si>
-    <t>兰花科创</t>
-  </si>
-  <si>
-    <t>晶盛机电</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
-    <t>凌云股份</t>
-  </si>
-  <si>
-    <t>精华制药</t>
-  </si>
-  <si>
-    <t>特锐德</t>
-  </si>
-  <si>
-    <t>圣阳股份</t>
-  </si>
-  <si>
-    <t>深粮控股</t>
-  </si>
-  <si>
-    <t>昇兴股份</t>
-  </si>
-  <si>
-    <t>露笑科技</t>
-  </si>
-  <si>
-    <t>中国国航</t>
-  </si>
-  <si>
-    <t>中源协和</t>
-  </si>
-  <si>
-    <t>合康新能</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>东华科技</t>
-  </si>
-  <si>
-    <t>重庆啤酒</t>
-  </si>
-  <si>
-    <t>皖维高新</t>
-  </si>
-  <si>
-    <t>民和股份</t>
-  </si>
-  <si>
-    <t>光大银行</t>
-  </si>
-  <si>
-    <t>东宝生物</t>
-  </si>
-  <si>
-    <t>三友化工</t>
-  </si>
-  <si>
-    <t>青岛银行</t>
-  </si>
-  <si>
-    <t>新奥股份</t>
-  </si>
-  <si>
-    <t>博纳影业</t>
-  </si>
-  <si>
-    <t>三峰环境</t>
-  </si>
-  <si>
-    <t>翱捷科技</t>
-  </si>
-  <si>
-    <t>ST交昂</t>
-  </si>
-  <si>
-    <t>国元证券</t>
-  </si>
-  <si>
-    <t>ST花王</t>
-  </si>
-  <si>
-    <t>南山铝业</t>
+    <t>荣盛发展</t>
+  </si>
+  <si>
+    <t>华虹公司</t>
+  </si>
+  <si>
+    <t>万马科技</t>
+  </si>
+  <si>
+    <t>华利集团</t>
+  </si>
+  <si>
+    <t>迈为股份</t>
+  </si>
+  <si>
+    <t>华闻集团</t>
   </si>
 </sst>
 </file>
@@ -980,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1002,10 +984,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1013,10 +995,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1024,10 +1006,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4">
-        <v>169</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1035,10 +1017,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5">
-        <v>233</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1046,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6">
-        <v>274</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1057,10 +1039,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7">
-        <v>362</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1068,10 +1050,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8">
-        <v>397</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1079,10 +1061,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9">
-        <v>425</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1090,10 +1072,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C10">
-        <v>551</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1101,10 +1083,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C11">
-        <v>588</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1112,10 +1094,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12">
-        <v>590</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1123,10 +1105,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C13">
-        <v>608</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1134,10 +1116,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C14">
-        <v>617</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1145,10 +1127,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C15">
-        <v>726</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1156,10 +1138,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C16">
-        <v>775</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1167,10 +1149,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17">
-        <v>870</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1178,10 +1160,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C18">
-        <v>883</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1189,10 +1171,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C19">
-        <v>889</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1200,10 +1182,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C20">
-        <v>1056</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1211,10 +1193,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C21">
-        <v>1056</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1222,10 +1204,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C22">
-        <v>1088</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1233,10 +1215,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23">
-        <v>1206</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1244,10 +1226,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C24">
-        <v>1233</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1255,10 +1237,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C25">
-        <v>1246</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1266,10 +1248,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C26">
-        <v>1267</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1277,10 +1259,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C27">
-        <v>1347</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1288,10 +1270,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C28">
-        <v>1360</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1299,10 +1281,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C29">
-        <v>1388</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1310,10 +1292,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C30">
-        <v>1462</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1321,10 +1303,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C31">
-        <v>1604</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1332,10 +1314,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C32">
-        <v>1625</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1343,10 +1325,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C33">
-        <v>1707</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1354,10 +1336,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C34">
-        <v>1769</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1365,10 +1347,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C35">
-        <v>1770</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1376,10 +1358,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C36">
-        <v>1813</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1387,10 +1369,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C37">
-        <v>1825</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1398,10 +1380,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C38">
-        <v>1841</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1409,10 +1391,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C39">
-        <v>1843</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1420,10 +1402,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C40">
-        <v>1890</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1431,10 +1413,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C41">
-        <v>1974</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1442,10 +1424,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C42">
-        <v>2015</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1453,10 +1435,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C43">
-        <v>2046</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1464,10 +1446,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C44">
-        <v>2085</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1475,10 +1457,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C45">
-        <v>2126</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1486,10 +1468,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C46">
-        <v>2149</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1497,10 +1479,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C47">
-        <v>2179</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1508,10 +1490,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C48">
-        <v>2321</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1519,10 +1501,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C49">
-        <v>2392</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1530,10 +1512,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C50">
-        <v>2415</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1541,10 +1523,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C51">
-        <v>2510</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1552,10 +1534,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C52">
-        <v>2535</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1563,10 +1545,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C53">
-        <v>2602</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1574,10 +1556,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C54">
-        <v>2778</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1585,10 +1567,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C55">
-        <v>2894</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1596,10 +1578,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C56">
-        <v>2939</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1607,10 +1589,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C57">
-        <v>2983</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1618,10 +1600,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C58">
-        <v>3187</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1629,10 +1611,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C59">
-        <v>3275</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1640,10 +1622,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C60">
-        <v>3346</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1651,10 +1633,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C61">
-        <v>3390</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1662,10 +1644,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C62">
-        <v>3431</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1673,10 +1655,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C63">
-        <v>3485</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1684,10 +1666,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C64">
-        <v>3533</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1695,10 +1677,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C65">
-        <v>3540</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1706,10 +1688,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C66">
-        <v>3574</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1717,10 +1699,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C67">
-        <v>3677</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1728,10 +1710,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C68">
-        <v>3741</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1739,10 +1721,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C69">
-        <v>3796</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1750,10 +1732,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C70">
-        <v>3875</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1761,10 +1743,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C71">
-        <v>3918</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1772,10 +1754,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C72">
-        <v>4014</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1783,10 +1765,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C73">
-        <v>4025</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1794,10 +1776,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C74">
-        <v>4066</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1805,10 +1787,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C75">
-        <v>4084</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1816,10 +1798,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C76">
-        <v>4179</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1827,10 +1809,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C77">
-        <v>4253</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1838,10 +1820,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C78">
-        <v>4263</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1849,10 +1831,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C79">
-        <v>4325</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1860,10 +1842,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C80">
-        <v>4328</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1871,10 +1853,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C81">
-        <v>4428</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1882,10 +1864,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C82">
-        <v>4435</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1893,10 +1875,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C83">
-        <v>4486</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1904,10 +1886,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C84">
-        <v>4506</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1915,10 +1897,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C85">
-        <v>4514</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1926,10 +1908,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C86">
-        <v>4609</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1937,10 +1919,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C87">
-        <v>4667</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1948,10 +1930,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C88">
-        <v>4671</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1959,10 +1941,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C89">
-        <v>4772</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1970,10 +1952,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C90">
-        <v>4798</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1981,10 +1963,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C91">
-        <v>4819</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1992,10 +1974,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C92">
-        <v>4844</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2003,10 +1985,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C93">
-        <v>4996</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2014,10 +1996,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C94">
-        <v>5125</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2025,10 +2007,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C95">
-        <v>5145</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2036,10 +2018,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C96">
-        <v>5217</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2047,10 +2029,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C97">
-        <v>5228</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2058,43 +2040,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C98">
-        <v>5253</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99">
-        <v>5281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100">
-        <v>5286</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" t="s">
-        <v>202</v>
-      </c>
-      <c r="C101">
-        <v>5293</v>
+        <v>5365</v>
       </c>
     </row>
   </sheetData>

--- a/金融/模拟投资组合-机器学习模型-选股/最终预测结果.xlsx
+++ b/金融/模拟投资组合-机器学习模型-选股/最终预测结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>股票代码</t>
   </si>
@@ -25,586 +25,592 @@
     <t>位置总和</t>
   </si>
   <si>
-    <t>301226.SZ</t>
-  </si>
-  <si>
-    <t>601658.SH</t>
-  </si>
-  <si>
-    <t>301119.SZ</t>
-  </si>
-  <si>
-    <t>601006.SH</t>
-  </si>
-  <si>
-    <t>300721.SZ</t>
-  </si>
-  <si>
-    <t>002871.SZ</t>
-  </si>
-  <si>
-    <t>688468.SH</t>
-  </si>
-  <si>
-    <t>002788.SZ</t>
-  </si>
-  <si>
-    <t>600398.SH</t>
-  </si>
-  <si>
-    <t>603299.SH</t>
-  </si>
-  <si>
-    <t>002166.SZ</t>
+    <t>688234.SH</t>
+  </si>
+  <si>
+    <t>300573.SZ</t>
+  </si>
+  <si>
+    <t>300893.SZ</t>
+  </si>
+  <si>
+    <t>688019.SH</t>
+  </si>
+  <si>
+    <t>300816.SZ</t>
+  </si>
+  <si>
+    <t>002906.SZ</t>
+  </si>
+  <si>
+    <t>688368.SH</t>
+  </si>
+  <si>
+    <t>300519.SZ</t>
+  </si>
+  <si>
+    <t>301230.SZ</t>
+  </si>
+  <si>
+    <t>300458.SZ</t>
+  </si>
+  <si>
+    <t>002475.SZ</t>
+  </si>
+  <si>
+    <t>002920.SZ</t>
+  </si>
+  <si>
+    <t>688347.SH</t>
+  </si>
+  <si>
+    <t>300604.SZ</t>
+  </si>
+  <si>
+    <t>603618.SH</t>
+  </si>
+  <si>
+    <t>000830.SZ</t>
+  </si>
+  <si>
+    <t>300770.SZ</t>
+  </si>
+  <si>
+    <t>301326.SZ</t>
+  </si>
+  <si>
+    <t>301389.SZ</t>
+  </si>
+  <si>
+    <t>002472.SZ</t>
+  </si>
+  <si>
+    <t>300508.SZ</t>
+  </si>
+  <si>
+    <t>300866.SZ</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>688589.SH</t>
+  </si>
+  <si>
+    <t>600660.SH</t>
+  </si>
+  <si>
+    <t>600875.SH</t>
+  </si>
+  <si>
+    <t>601899.SH</t>
+  </si>
+  <si>
+    <t>605366.SH</t>
+  </si>
+  <si>
+    <t>600309.SH</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>000702.SZ</t>
+  </si>
+  <si>
+    <t>600893.SH</t>
+  </si>
+  <si>
+    <t>600123.SH</t>
+  </si>
+  <si>
+    <t>600039.SH</t>
+  </si>
+  <si>
+    <t>605368.SH</t>
+  </si>
+  <si>
+    <t>002501.SZ</t>
+  </si>
+  <si>
+    <t>000957.SZ</t>
+  </si>
+  <si>
+    <t>603102.SH</t>
+  </si>
+  <si>
+    <t>300436.SZ</t>
+  </si>
+  <si>
+    <t>601121.SH</t>
+  </si>
+  <si>
+    <t>002862.SZ</t>
+  </si>
+  <si>
+    <t>301179.SZ</t>
+  </si>
+  <si>
+    <t>600690.SH</t>
+  </si>
+  <si>
+    <t>001205.SZ</t>
+  </si>
+  <si>
+    <t>600461.SH</t>
+  </si>
+  <si>
+    <t>688093.SH</t>
+  </si>
+  <si>
+    <t>600012.SH</t>
+  </si>
+  <si>
+    <t>605058.SH</t>
+  </si>
+  <si>
+    <t>603067.SH</t>
+  </si>
+  <si>
+    <t>600540.SH</t>
+  </si>
+  <si>
+    <t>601827.SH</t>
+  </si>
+  <si>
+    <t>300858.SZ</t>
+  </si>
+  <si>
+    <t>300008.SZ</t>
+  </si>
+  <si>
+    <t>301167.SZ</t>
+  </si>
+  <si>
+    <t>000962.SZ</t>
+  </si>
+  <si>
+    <t>000155.SZ</t>
+  </si>
+  <si>
+    <t>603177.SH</t>
   </si>
   <si>
     <t>002545.SZ</t>
   </si>
   <si>
-    <t>600820.SH</t>
-  </si>
-  <si>
-    <t>600658.SH</t>
-  </si>
-  <si>
-    <t>300317.SZ</t>
-  </si>
-  <si>
-    <t>300337.SZ</t>
-  </si>
-  <si>
-    <t>002839.SZ</t>
-  </si>
-  <si>
-    <t>600064.SH</t>
-  </si>
-  <si>
-    <t>601229.SH</t>
-  </si>
-  <si>
-    <t>000906.SZ</t>
-  </si>
-  <si>
-    <t>301175.SZ</t>
-  </si>
-  <si>
-    <t>002234.SZ</t>
-  </si>
-  <si>
-    <t>601366.SH</t>
-  </si>
-  <si>
-    <t>600694.SH</t>
-  </si>
-  <si>
-    <t>002550.SZ</t>
-  </si>
-  <si>
-    <t>001360.SZ</t>
-  </si>
-  <si>
-    <t>603669.SH</t>
-  </si>
-  <si>
-    <t>688575.SH</t>
-  </si>
-  <si>
-    <t>600489.SH</t>
-  </si>
-  <si>
-    <t>600787.SH</t>
-  </si>
-  <si>
-    <t>300218.SZ</t>
-  </si>
-  <si>
-    <t>600032.SH</t>
-  </si>
-  <si>
-    <t>600496.SH</t>
-  </si>
-  <si>
-    <t>600889.SH</t>
-  </si>
-  <si>
-    <t>688022.SH</t>
-  </si>
-  <si>
-    <t>002185.SZ</t>
-  </si>
-  <si>
-    <t>300745.SZ</t>
-  </si>
-  <si>
-    <t>001872.SZ</t>
-  </si>
-  <si>
-    <t>002864.SZ</t>
-  </si>
-  <si>
-    <t>605183.SH</t>
-  </si>
-  <si>
-    <t>603085.SH</t>
-  </si>
-  <si>
-    <t>300772.SZ</t>
-  </si>
-  <si>
-    <t>002468.SZ</t>
-  </si>
-  <si>
-    <t>002128.SZ</t>
-  </si>
-  <si>
-    <t>600089.SH</t>
-  </si>
-  <si>
-    <t>002244.SZ</t>
-  </si>
-  <si>
-    <t>002358.SZ</t>
-  </si>
-  <si>
-    <t>002142.SZ</t>
-  </si>
-  <si>
-    <t>603055.SH</t>
-  </si>
-  <si>
-    <t>300497.SZ</t>
-  </si>
-  <si>
-    <t>000551.SZ</t>
-  </si>
-  <si>
-    <t>002606.SZ</t>
-  </si>
-  <si>
-    <t>000682.SZ</t>
-  </si>
-  <si>
-    <t>301193.SZ</t>
-  </si>
-  <si>
-    <t>300532.SZ</t>
-  </si>
-  <si>
-    <t>002438.SZ</t>
-  </si>
-  <si>
-    <t>600508.SH</t>
-  </si>
-  <si>
-    <t>300397.SZ</t>
-  </si>
-  <si>
-    <t>688126.SH</t>
-  </si>
-  <si>
-    <t>000728.SZ</t>
-  </si>
-  <si>
-    <t>301309.SZ</t>
-  </si>
-  <si>
-    <t>301028.SZ</t>
-  </si>
-  <si>
-    <t>603889.SH</t>
-  </si>
-  <si>
-    <t>300652.SZ</t>
-  </si>
-  <si>
-    <t>000960.SZ</t>
-  </si>
-  <si>
-    <t>000830.SZ</t>
-  </si>
-  <si>
-    <t>300516.SZ</t>
-  </si>
-  <si>
-    <t>605016.SH</t>
-  </si>
-  <si>
-    <t>002422.SZ</t>
-  </si>
-  <si>
-    <t>600435.SH</t>
-  </si>
-  <si>
-    <t>688143.SH</t>
-  </si>
-  <si>
-    <t>600460.SH</t>
-  </si>
-  <si>
-    <t>688786.SH</t>
-  </si>
-  <si>
-    <t>300712.SZ</t>
-  </si>
-  <si>
-    <t>300012.SZ</t>
-  </si>
-  <si>
-    <t>603179.SH</t>
-  </si>
-  <si>
-    <t>300855.SZ</t>
-  </si>
-  <si>
-    <t>002501.SZ</t>
-  </si>
-  <si>
-    <t>603589.SH</t>
-  </si>
-  <si>
-    <t>002003.SZ</t>
-  </si>
-  <si>
-    <t>301306.SZ</t>
-  </si>
-  <si>
-    <t>603690.SH</t>
-  </si>
-  <si>
-    <t>300866.SZ</t>
-  </si>
-  <si>
-    <t>603050.SH</t>
-  </si>
-  <si>
-    <t>002338.SZ</t>
-  </si>
-  <si>
-    <t>688073.SH</t>
-  </si>
-  <si>
-    <t>301269.SZ</t>
-  </si>
-  <si>
-    <t>301525.SZ</t>
-  </si>
-  <si>
-    <t>688623.SH</t>
-  </si>
-  <si>
-    <t>688293.SH</t>
-  </si>
-  <si>
-    <t>002025.SZ</t>
-  </si>
-  <si>
-    <t>002146.SZ</t>
-  </si>
-  <si>
-    <t>688347.SH</t>
-  </si>
-  <si>
-    <t>300698.SZ</t>
-  </si>
-  <si>
-    <t>300979.SZ</t>
-  </si>
-  <si>
-    <t>300751.SZ</t>
-  </si>
-  <si>
-    <t>000793.SZ</t>
-  </si>
-  <si>
-    <t>祥明智能</t>
-  </si>
-  <si>
-    <t>邮储银行</t>
-  </si>
-  <si>
-    <t>正强股份</t>
-  </si>
-  <si>
-    <t>大秦铁路</t>
-  </si>
-  <si>
-    <t>怡达股份</t>
-  </si>
-  <si>
-    <t>伟隆股份</t>
-  </si>
-  <si>
-    <t>科美诊断</t>
-  </si>
-  <si>
-    <t>鹭燕医药</t>
-  </si>
-  <si>
-    <t>海澜之家</t>
-  </si>
-  <si>
-    <t>苏盐井神</t>
-  </si>
-  <si>
-    <t>莱茵生物</t>
+    <t>002011.SZ</t>
+  </si>
+  <si>
+    <t>600237.SH</t>
+  </si>
+  <si>
+    <t>002125.SZ</t>
+  </si>
+  <si>
+    <t>603693.SH</t>
+  </si>
+  <si>
+    <t>002444.SZ</t>
+  </si>
+  <si>
+    <t>300493.SZ</t>
+  </si>
+  <si>
+    <t>600203.SH</t>
+  </si>
+  <si>
+    <t>600163.SH</t>
+  </si>
+  <si>
+    <t>688162.SH</t>
+  </si>
+  <si>
+    <t>300819.SZ</t>
+  </si>
+  <si>
+    <t>600497.SH</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>300743.SZ</t>
+  </si>
+  <si>
+    <t>600409.SH</t>
+  </si>
+  <si>
+    <t>000738.SZ</t>
+  </si>
+  <si>
+    <t>605598.SH</t>
+  </si>
+  <si>
+    <t>300691.SZ</t>
+  </si>
+  <si>
+    <t>002852.SZ</t>
+  </si>
+  <si>
+    <t>002161.SZ</t>
+  </si>
+  <si>
+    <t>600368.SH</t>
+  </si>
+  <si>
+    <t>600517.SH</t>
+  </si>
+  <si>
+    <t>002580.SZ</t>
+  </si>
+  <si>
+    <t>603725.SH</t>
+  </si>
+  <si>
+    <t>603648.SH</t>
+  </si>
+  <si>
+    <t>603982.SH</t>
+  </si>
+  <si>
+    <t>603217.SH</t>
+  </si>
+  <si>
+    <t>600617.SH</t>
+  </si>
+  <si>
+    <t>000758.SZ</t>
+  </si>
+  <si>
+    <t>600255.SH</t>
+  </si>
+  <si>
+    <t>600262.SH</t>
+  </si>
+  <si>
+    <t>300752.SZ</t>
+  </si>
+  <si>
+    <t>601611.SH</t>
+  </si>
+  <si>
+    <t>600874.SH</t>
+  </si>
+  <si>
+    <t>002497.SZ</t>
+  </si>
+  <si>
+    <t>003022.SZ</t>
+  </si>
+  <si>
+    <t>600115.SH</t>
+  </si>
+  <si>
+    <t>600618.SH</t>
+  </si>
+  <si>
+    <t>600611.SH</t>
+  </si>
+  <si>
+    <t>000949.SZ</t>
+  </si>
+  <si>
+    <t>000416.SZ</t>
+  </si>
+  <si>
+    <t>天岳先进</t>
+  </si>
+  <si>
+    <t>兴齐眼药</t>
+  </si>
+  <si>
+    <t>松原股份</t>
+  </si>
+  <si>
+    <t>安集科技</t>
+  </si>
+  <si>
+    <t>艾可蓝</t>
+  </si>
+  <si>
+    <t>华阳集团</t>
+  </si>
+  <si>
+    <t>晶丰明源</t>
+  </si>
+  <si>
+    <t>新光药业</t>
+  </si>
+  <si>
+    <t>泓博医药</t>
+  </si>
+  <si>
+    <t>全志科技</t>
+  </si>
+  <si>
+    <t>立讯精密</t>
+  </si>
+  <si>
+    <t>德赛西威</t>
+  </si>
+  <si>
+    <t>华虹公司</t>
+  </si>
+  <si>
+    <t>长川科技</t>
+  </si>
+  <si>
+    <t>杭电股份</t>
+  </si>
+  <si>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>新媒股份</t>
+  </si>
+  <si>
+    <t>捷邦科技</t>
+  </si>
+  <si>
+    <t>隆扬电子</t>
+  </si>
+  <si>
+    <t>双环传动</t>
+  </si>
+  <si>
+    <t>维宏股份</t>
+  </si>
+  <si>
+    <t>安克创新</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>力合微</t>
+  </si>
+  <si>
+    <t>福耀玻璃</t>
+  </si>
+  <si>
+    <t>东方电气</t>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
+    <t>宏柏新材</t>
+  </si>
+  <si>
+    <t>万华化学</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>正虹科技</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>兰花科创</t>
+  </si>
+  <si>
+    <t>四川路桥</t>
+  </si>
+  <si>
+    <t>蓝天燃气</t>
+  </si>
+  <si>
+    <t>利源股份</t>
+  </si>
+  <si>
+    <t>中通客车</t>
+  </si>
+  <si>
+    <t>百合股份</t>
+  </si>
+  <si>
+    <t>广生堂</t>
+  </si>
+  <si>
+    <t>宝地矿业</t>
+  </si>
+  <si>
+    <t>实丰文化</t>
+  </si>
+  <si>
+    <t>泽宇智能</t>
+  </si>
+  <si>
+    <t>海尔智家</t>
+  </si>
+  <si>
+    <t>盛航股份</t>
+  </si>
+  <si>
+    <t>洪城环境</t>
+  </si>
+  <si>
+    <t>世华科技</t>
+  </si>
+  <si>
+    <t>皖通高速</t>
+  </si>
+  <si>
+    <t>澳弘电子</t>
+  </si>
+  <si>
+    <t>振华股份</t>
+  </si>
+  <si>
+    <t>新赛股份</t>
+  </si>
+  <si>
+    <t>三峰环境</t>
+  </si>
+  <si>
+    <t>科拓生物</t>
+  </si>
+  <si>
+    <t>天海防务</t>
+  </si>
+  <si>
+    <t>建研设计</t>
+  </si>
+  <si>
+    <t>东方钽业</t>
+  </si>
+  <si>
+    <t>川能动力</t>
+  </si>
+  <si>
+    <t>德创环保</t>
   </si>
   <si>
     <t>东方铁塔</t>
   </si>
   <si>
-    <t>隧道股份</t>
-  </si>
-  <si>
-    <t>电子城</t>
-  </si>
-  <si>
-    <t>珈伟新能</t>
-  </si>
-  <si>
-    <t>银邦股份</t>
-  </si>
-  <si>
-    <t>张家港行</t>
-  </si>
-  <si>
-    <t>南京高科</t>
-  </si>
-  <si>
-    <t>上海银行</t>
-  </si>
-  <si>
-    <t>浙商中拓</t>
-  </si>
-  <si>
-    <t>中科环保</t>
-  </si>
-  <si>
-    <t>民和股份</t>
-  </si>
-  <si>
-    <t>利群股份</t>
-  </si>
-  <si>
-    <t>大商股份</t>
-  </si>
-  <si>
-    <t>千红制药</t>
-  </si>
-  <si>
-    <t>南矿集团</t>
-  </si>
-  <si>
-    <t>灵康药业</t>
-  </si>
-  <si>
-    <t>亚辉龙</t>
-  </si>
-  <si>
-    <t>中金黄金</t>
-  </si>
-  <si>
-    <t>中储股份</t>
-  </si>
-  <si>
-    <t>安利股份</t>
-  </si>
-  <si>
-    <t>浙江新能</t>
-  </si>
-  <si>
-    <t>精工钢构</t>
-  </si>
-  <si>
-    <t>南京化纤</t>
-  </si>
-  <si>
-    <t>瀚川智能</t>
-  </si>
-  <si>
-    <t>华天科技</t>
-  </si>
-  <si>
-    <t>欣锐科技</t>
-  </si>
-  <si>
-    <t>招商港口</t>
-  </si>
-  <si>
-    <t>盘龙药业</t>
-  </si>
-  <si>
-    <t>确成股份</t>
-  </si>
-  <si>
-    <t>天成自控</t>
-  </si>
-  <si>
-    <t>运达股份</t>
-  </si>
-  <si>
-    <t>申通快递</t>
-  </si>
-  <si>
-    <t>电投能源</t>
-  </si>
-  <si>
-    <t>特变电工</t>
-  </si>
-  <si>
-    <t>滨江集团</t>
-  </si>
-  <si>
-    <t>森源电气</t>
-  </si>
-  <si>
-    <t>宁波银行</t>
-  </si>
-  <si>
-    <t>台华新材</t>
-  </si>
-  <si>
-    <t>富祥药业</t>
-  </si>
-  <si>
-    <t>创元科技</t>
-  </si>
-  <si>
-    <t>大连电瓷</t>
-  </si>
-  <si>
-    <t>东方电子</t>
-  </si>
-  <si>
-    <t>家联科技</t>
-  </si>
-  <si>
-    <t>今天国际</t>
-  </si>
-  <si>
-    <t>江苏神通</t>
-  </si>
-  <si>
-    <t>上海能源</t>
-  </si>
-  <si>
-    <t>天和防务</t>
-  </si>
-  <si>
-    <t>沪硅产业</t>
-  </si>
-  <si>
-    <t>国元证券</t>
-  </si>
-  <si>
-    <t>万得凯</t>
-  </si>
-  <si>
-    <t>东亚机械</t>
-  </si>
-  <si>
-    <t>新澳股份</t>
-  </si>
-  <si>
-    <t>雷迪克</t>
-  </si>
-  <si>
-    <t>锡业股份</t>
-  </si>
-  <si>
-    <t>鲁西化工</t>
-  </si>
-  <si>
-    <t>久之洋</t>
-  </si>
-  <si>
-    <t>百龙创园</t>
-  </si>
-  <si>
-    <t>科伦药业</t>
-  </si>
-  <si>
-    <t>北方导航</t>
-  </si>
-  <si>
-    <t>长盈通</t>
-  </si>
-  <si>
-    <t>士兰微</t>
-  </si>
-  <si>
-    <t>悦安新材</t>
-  </si>
-  <si>
-    <t>永福股份</t>
-  </si>
-  <si>
-    <t>华测检测</t>
-  </si>
-  <si>
-    <t>新泉股份</t>
-  </si>
-  <si>
-    <t>图南股份</t>
-  </si>
-  <si>
-    <t>利源股份</t>
-  </si>
-  <si>
-    <t>口子窖</t>
-  </si>
-  <si>
-    <t>伟星股份</t>
-  </si>
-  <si>
-    <t>西测测试</t>
-  </si>
-  <si>
-    <t>至纯科技</t>
-  </si>
-  <si>
-    <t>安克创新</t>
-  </si>
-  <si>
-    <t>科林电气</t>
-  </si>
-  <si>
-    <t>奥普光电</t>
-  </si>
-  <si>
-    <t>毕得医药</t>
-  </si>
-  <si>
-    <t>华大九天</t>
-  </si>
-  <si>
-    <t>儒竞科技</t>
-  </si>
-  <si>
-    <t>双元科技</t>
-  </si>
-  <si>
-    <t>奥浦迈</t>
-  </si>
-  <si>
-    <t>航天电器</t>
-  </si>
-  <si>
-    <t>荣盛发展</t>
-  </si>
-  <si>
-    <t>华虹公司</t>
-  </si>
-  <si>
-    <t>万马科技</t>
-  </si>
-  <si>
-    <t>华利集团</t>
-  </si>
-  <si>
-    <t>迈为股份</t>
-  </si>
-  <si>
-    <t>华闻集团</t>
+    <t>盾安环境</t>
+  </si>
+  <si>
+    <t>铜峰电子</t>
+  </si>
+  <si>
+    <t>湘潭电化</t>
+  </si>
+  <si>
+    <t>江苏新能</t>
+  </si>
+  <si>
+    <t>巨星科技</t>
+  </si>
+  <si>
+    <t>润欣科技</t>
+  </si>
+  <si>
+    <t>福日电子</t>
+  </si>
+  <si>
+    <t>中闽能源</t>
+  </si>
+  <si>
+    <t>巨一科技</t>
+  </si>
+  <si>
+    <t>聚杰微纤</t>
+  </si>
+  <si>
+    <t>驰宏锌锗</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>天地数码</t>
+  </si>
+  <si>
+    <t>三友化工</t>
+  </si>
+  <si>
+    <t>航发控制</t>
+  </si>
+  <si>
+    <t>上海港湾</t>
+  </si>
+  <si>
+    <t>联合光电</t>
+  </si>
+  <si>
+    <t>道道全</t>
+  </si>
+  <si>
+    <t>远望谷</t>
+  </si>
+  <si>
+    <t>五洲交通</t>
+  </si>
+  <si>
+    <t>国网英大</t>
+  </si>
+  <si>
+    <t>圣阳股份</t>
+  </si>
+  <si>
+    <t>天安新材</t>
+  </si>
+  <si>
+    <t>畅联股份</t>
+  </si>
+  <si>
+    <t>泉峰汽车</t>
+  </si>
+  <si>
+    <t>元利科技</t>
+  </si>
+  <si>
+    <t>国新能源</t>
+  </si>
+  <si>
+    <t>中色股份</t>
+  </si>
+  <si>
+    <t>鑫科材料</t>
+  </si>
+  <si>
+    <t>北方股份</t>
+  </si>
+  <si>
+    <t>隆利科技</t>
+  </si>
+  <si>
+    <t>中国核建</t>
+  </si>
+  <si>
+    <t>创业环保</t>
+  </si>
+  <si>
+    <t>雅化集团</t>
+  </si>
+  <si>
+    <t>联泓新科</t>
+  </si>
+  <si>
+    <t>中国东航</t>
+  </si>
+  <si>
+    <t>氯碱化工</t>
+  </si>
+  <si>
+    <t>大众交通</t>
+  </si>
+  <si>
+    <t>新乡化纤</t>
+  </si>
+  <si>
+    <t>*ST民控</t>
   </si>
 </sst>
 </file>
@@ -962,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -984,10 +990,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -995,10 +1001,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1006,10 +1012,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4">
-        <v>281</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1017,10 +1023,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5">
-        <v>353</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1028,10 +1034,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1039,10 +1045,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7">
-        <v>573</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1050,10 +1056,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8">
-        <v>695</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1061,10 +1067,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9">
-        <v>863</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1072,10 +1078,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10">
-        <v>1008</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1083,10 +1089,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11">
-        <v>1028</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1094,10 +1100,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12">
-        <v>1148</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1105,10 +1111,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13">
-        <v>1166</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1116,10 +1122,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14">
-        <v>1213</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1127,10 +1133,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15">
-        <v>1220</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1138,10 +1144,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16">
-        <v>1242</v>
+        <v>941</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1149,10 +1155,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17">
-        <v>1266</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1160,10 +1166,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18">
-        <v>1274</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1171,10 +1177,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19">
-        <v>1395</v>
+        <v>994</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1182,10 +1188,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20">
-        <v>1398</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1193,10 +1199,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21">
-        <v>1428</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1204,10 +1210,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22">
-        <v>1540</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1215,10 +1221,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23">
-        <v>1577</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1226,10 +1232,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24">
-        <v>1578</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1237,10 +1243,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25">
-        <v>1609</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1248,10 +1254,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C26">
-        <v>1692</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1259,10 +1265,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C27">
-        <v>1731</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1270,10 +1276,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C28">
-        <v>1817</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1281,10 +1287,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C29">
-        <v>1841</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1292,10 +1298,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C30">
-        <v>1853</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1303,10 +1309,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31">
-        <v>2039</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1314,10 +1320,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32">
-        <v>2256</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1325,10 +1331,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C33">
-        <v>2393</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1336,10 +1342,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34">
-        <v>2424</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1347,10 +1353,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C35">
-        <v>2613</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1358,10 +1364,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36">
-        <v>2631</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1369,10 +1375,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37">
-        <v>2695</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1380,10 +1386,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38">
-        <v>2710</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1391,10 +1397,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C39">
-        <v>2744</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1402,10 +1408,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40">
-        <v>2870</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1413,10 +1419,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C41">
-        <v>2931</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1424,10 +1430,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C42">
-        <v>2947</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1435,10 +1441,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C43">
-        <v>3093</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1446,10 +1452,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44">
-        <v>3123</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1457,10 +1463,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45">
-        <v>3135</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1468,10 +1474,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C46">
-        <v>3151</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1479,10 +1485,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47">
-        <v>3201</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1490,10 +1496,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C48">
-        <v>3214</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1501,10 +1507,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C49">
-        <v>3237</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1512,10 +1518,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C50">
-        <v>3250</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1523,10 +1529,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C51">
-        <v>3251</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1534,10 +1540,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C52">
-        <v>3265</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1545,10 +1551,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C53">
-        <v>3268</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1556,10 +1562,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C54">
-        <v>3271</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1567,10 +1573,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C55">
-        <v>3353</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1578,10 +1584,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C56">
-        <v>3379</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1589,10 +1595,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C57">
-        <v>3415</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1600,10 +1606,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C58">
-        <v>3428</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1611,10 +1617,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C59">
-        <v>3449</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1622,10 +1628,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C60">
-        <v>3511</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1633,10 +1639,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C61">
-        <v>3543</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1644,10 +1650,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C62">
-        <v>3560</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1655,10 +1661,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C63">
-        <v>3641</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1666,10 +1672,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C64">
-        <v>3663</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1677,10 +1683,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C65">
-        <v>3688</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1688,10 +1694,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C66">
-        <v>3807</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1699,10 +1705,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C67">
-        <v>3842</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1710,10 +1716,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C68">
-        <v>3843</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1721,10 +1727,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C69">
-        <v>4077</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1732,10 +1738,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70">
-        <v>4122</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1743,10 +1749,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C71">
-        <v>4151</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1754,10 +1760,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C72">
-        <v>4208</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1765,10 +1771,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C73">
-        <v>4247</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1776,10 +1782,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C74">
-        <v>4406</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1787,10 +1793,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C75">
-        <v>4409</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1798,10 +1804,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C76">
-        <v>4511</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1809,10 +1815,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C77">
-        <v>4547</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1820,10 +1826,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C78">
-        <v>4554</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1831,10 +1837,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C79">
-        <v>4576</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1842,10 +1848,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C80">
-        <v>4632</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1853,10 +1859,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C81">
-        <v>4673</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1864,10 +1870,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C82">
-        <v>4688</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1875,10 +1881,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C83">
-        <v>4721</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1886,10 +1892,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C84">
-        <v>4779</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1897,10 +1903,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C85">
-        <v>4802</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1908,10 +1914,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C86">
-        <v>4917</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1919,10 +1925,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C87">
-        <v>4924</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1930,10 +1936,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C88">
-        <v>5048</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1941,10 +1947,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C89">
-        <v>5067</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1952,10 +1958,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C90">
-        <v>5073</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1963,10 +1969,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C91">
-        <v>5077</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1974,10 +1980,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C92">
-        <v>5086</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1985,10 +1991,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C93">
-        <v>5116</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1996,10 +2002,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C94">
-        <v>5127</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2007,10 +2013,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C95">
-        <v>5226</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2018,10 +2024,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C96">
-        <v>5307</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2029,10 +2035,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C97">
-        <v>5330</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2040,10 +2046,21 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98">
-        <v>5365</v>
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99">
+        <v>5417</v>
       </c>
     </row>
   </sheetData>
